--- a/EXCEL_OUPUT/ASIC Form 388 and PAPL Financial Report for year ending 31 December 2022 (30 Apr 2022) v.xlsx
+++ b/EXCEL_OUPUT/ASIC Form 388 and PAPL Financial Report for year ending 31 December 2022 (30 Apr 2022) v.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="937">
   <si>
     <t>Note 25. Information relating to Paper Australia Pty Ltd (the Parent)</t>
   </si>
@@ -86,7 +86,7 @@
     <t>Profit/(loss) of the Parent entity</t>
   </si>
   <si>
-    <t>Total comprehensive incomel(loss) of the Parent entity</t>
+    <t>Total comprehensive income/(loss) of the Parent entity</t>
   </si>
   <si>
     <t>2022</t>
@@ -299,7 +299,7 @@
     <t>1394</t>
   </si>
   <si>
-    <t>At1. January</t>
+    <t>At1 January</t>
   </si>
   <si>
     <t>Received during the year</t>
@@ -308,7 +308,7 @@
     <t>Released to the statement of profit or loss</t>
   </si>
   <si>
-    <t>At31 December</t>
+    <t>At 31 December</t>
   </si>
   <si>
     <t>Current</t>
@@ -473,543 +473,540 @@
     <t>Non Current</t>
   </si>
   <si>
+    <t>At1 January 2021</t>
+  </si>
+  <si>
+    <t>At31 December 2021</t>
+  </si>
+  <si>
+    <t>Employee Benefits</t>
+  </si>
+  <si>
+    <t>126840</t>
+  </si>
+  <si>
+    <t>5545</t>
+  </si>
+  <si>
+    <t>(5,005)</t>
+  </si>
+  <si>
+    <t>(2,557)</t>
+  </si>
+  <si>
+    <t>124823</t>
+  </si>
+  <si>
+    <t>118775</t>
+  </si>
+  <si>
+    <t>6048</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t>123920</t>
+  </si>
+  <si>
+    <t>24619</t>
+  </si>
+  <si>
+    <t>(21,115)</t>
+  </si>
+  <si>
+    <t>(584)</t>
+  </si>
+  <si>
+    <t>115567</t>
+  </si>
+  <si>
+    <t>11273</t>
+  </si>
+  <si>
+    <t>Environmental</t>
+  </si>
+  <si>
+    <t>22335</t>
+  </si>
+  <si>
+    <t>2465</t>
+  </si>
+  <si>
+    <t>(1,968)</t>
+  </si>
+  <si>
+    <t>22832</t>
+  </si>
+  <si>
+    <t>4707</t>
+  </si>
+  <si>
+    <t>18125</t>
+  </si>
+  <si>
+    <t>17224</t>
+  </si>
+  <si>
+    <t>5871</t>
+  </si>
+  <si>
+    <t>(760)</t>
+  </si>
+  <si>
+    <t>3707</t>
+  </si>
+  <si>
+    <t>18628</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>20861</t>
+  </si>
+  <si>
+    <t>28739</t>
+  </si>
+  <si>
+    <t>(22,729)</t>
+  </si>
+  <si>
+    <t>(1,021)</t>
+  </si>
+  <si>
+    <t>25850</t>
+  </si>
+  <si>
+    <t>9115</t>
+  </si>
+  <si>
+    <t>16735</t>
+  </si>
+  <si>
+    <t>19791</t>
+  </si>
+  <si>
+    <t>4666</t>
+  </si>
+  <si>
+    <t>(2,526)</t>
+  </si>
+  <si>
+    <t>(1,070)</t>
+  </si>
+  <si>
+    <t>11502</t>
+  </si>
+  <si>
+    <t>9359</t>
+  </si>
+  <si>
+    <t>170036</t>
+  </si>
+  <si>
+    <t>36749</t>
+  </si>
+  <si>
+    <t>(29,702)</t>
+  </si>
+  <si>
+    <t>(3,578)</t>
+  </si>
+  <si>
+    <t>173505</t>
+  </si>
+  <si>
+    <t>132597</t>
+  </si>
+  <si>
+    <t>40908</t>
+  </si>
+  <si>
+    <t>160935</t>
+  </si>
+  <si>
+    <t>35156</t>
+  </si>
+  <si>
+    <t>(24,401)</t>
+  </si>
+  <si>
+    <t>(1,654)</t>
+  </si>
+  <si>
+    <t>130776</t>
+  </si>
+  <si>
+    <t>39260</t>
+  </si>
+  <si>
+    <t>Note 19. Other Creditors</t>
+  </si>
+  <si>
+    <t>Deferred Consideration on acquired property (Note 9)</t>
+  </si>
+  <si>
+    <t>Other amounts</t>
+  </si>
+  <si>
+    <t>17000</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>17298</t>
+  </si>
+  <si>
+    <t>32200</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>32743</t>
+  </si>
+  <si>
+    <t>Defined benefit obligation</t>
+  </si>
+  <si>
+    <t>Fair value of plan assets</t>
+  </si>
+  <si>
+    <t>Net defined benefit asset/(liability)</t>
+  </si>
+  <si>
+    <t>1 January 2022</t>
+  </si>
+  <si>
+    <t>(26,729)</t>
+  </si>
+  <si>
+    <t>40398</t>
+  </si>
+  <si>
+    <t>13669</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>(1,188)</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>4579</t>
+  </si>
+  <si>
+    <t>(4,579)</t>
+  </si>
+  <si>
+    <t>31 December 2022</t>
+  </si>
+  <si>
+    <t>(21,328)</t>
+  </si>
+  <si>
+    <t>34631</t>
+  </si>
+  <si>
+    <t>13303</t>
+  </si>
+  <si>
+    <t>The fair values of each class of plan assets are as follows:</t>
+  </si>
+  <si>
+    <t>Equity Instruments</t>
+  </si>
+  <si>
+    <t>Debt Instruments</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Alternatives</t>
+  </si>
+  <si>
+    <t>Fair value of assets</t>
+  </si>
+  <si>
+    <t>Note 17. Trade and other payables</t>
+  </si>
+  <si>
+    <t>Trade payables</t>
+  </si>
+  <si>
+    <t>Payables to related parties (Note 23)</t>
+  </si>
+  <si>
+    <t>Other payables</t>
+  </si>
+  <si>
+    <t>12813</t>
+  </si>
+  <si>
+    <t>7619</t>
+  </si>
+  <si>
+    <t>2078</t>
+  </si>
+  <si>
+    <t>7965</t>
+  </si>
+  <si>
+    <t>218604</t>
+  </si>
+  <si>
+    <t>99331</t>
+  </si>
+  <si>
+    <t>319496</t>
+  </si>
+  <si>
+    <t>14947</t>
+  </si>
+  <si>
+    <t>8888</t>
+  </si>
+  <si>
+    <t>3232</t>
+  </si>
+  <si>
+    <t>8080</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>210738</t>
+  </si>
+  <si>
+    <t>106815</t>
+  </si>
+  <si>
+    <t>319346</t>
+  </si>
+  <si>
+    <t>Discount rate</t>
+  </si>
+  <si>
+    <t>Future salary increases</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>As at 1 January 2021</t>
+  </si>
+  <si>
+    <t>Additions</t>
+  </si>
+  <si>
+    <t>Depreciation Expense</t>
+  </si>
+  <si>
+    <t>FX Revaluation</t>
+  </si>
+  <si>
+    <t>As at 31 December 2021</t>
+  </si>
+  <si>
+    <t>Adjustments</t>
+  </si>
+  <si>
+    <t>As at 31 December 2022</t>
+  </si>
+  <si>
+    <t>Motor Vehicles</t>
+  </si>
+  <si>
+    <t>7300</t>
+  </si>
+  <si>
+    <t>1324</t>
+  </si>
+  <si>
+    <t>(3,439)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5191</t>
+  </si>
+  <si>
+    <t>2197</t>
+  </si>
+  <si>
+    <t>(1,405)</t>
+  </si>
+  <si>
+    <t>(2,220)</t>
+  </si>
+  <si>
+    <t>(6)</t>
+  </si>
+  <si>
+    <t>3757</t>
+  </si>
+  <si>
+    <t>Plant and machinery</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>(144)</t>
+  </si>
+  <si>
+    <t>642</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>(86)</t>
+  </si>
+  <si>
+    <t>(178)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>225470</t>
+  </si>
+  <si>
+    <t>13455</t>
+  </si>
+  <si>
+    <t>(40,808)</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>198266</t>
+  </si>
+  <si>
+    <t>31043</t>
+  </si>
+  <si>
+    <t>1491</t>
+  </si>
+  <si>
+    <t>(38,982)</t>
+  </si>
+  <si>
+    <t>(191)</t>
+  </si>
+  <si>
+    <t>191627</t>
+  </si>
+  <si>
+    <t>233556</t>
+  </si>
+  <si>
+    <t>14779</t>
+  </si>
+  <si>
+    <t>(44,391)</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>204099</t>
+  </si>
+  <si>
+    <t>33688</t>
+  </si>
+  <si>
+    <t>(41,380)</t>
+  </si>
+  <si>
+    <t>(196)</t>
+  </si>
+  <si>
+    <t>196211</t>
+  </si>
+  <si>
+    <t>Not later than 1 year</t>
+  </si>
+  <si>
+    <t>Later than 1 year and not later than 5 years</t>
+  </si>
+  <si>
+    <t>Later than 5 years</t>
+  </si>
+  <si>
+    <t>43983</t>
+  </si>
+  <si>
+    <t>119033</t>
+  </si>
+  <si>
+    <t>39078</t>
+  </si>
+  <si>
+    <t>202094</t>
+  </si>
+  <si>
+    <t>38349</t>
+  </si>
+  <si>
+    <t>115547</t>
+  </si>
+  <si>
+    <t>53718</t>
+  </si>
+  <si>
+    <t>207614</t>
+  </si>
+  <si>
+    <t>Benefits paid</t>
+  </si>
+  <si>
+    <t>(4,668)</t>
+  </si>
+  <si>
+    <t>Note 14. Intangible assets and Goodwill</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
     <t>At 1 January 2021</t>
   </si>
   <si>
-    <t>At3 31 December 2021</t>
-  </si>
-  <si>
-    <t>Employee Benefits</t>
-  </si>
-  <si>
-    <t>126840</t>
-  </si>
-  <si>
-    <t>5545</t>
-  </si>
-  <si>
-    <t>(5,005)</t>
-  </si>
-  <si>
-    <t>(2,557)</t>
-  </si>
-  <si>
-    <t>124823</t>
-  </si>
-  <si>
-    <t>118775</t>
-  </si>
-  <si>
-    <t>6048</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Benefits</t>
-  </si>
-  <si>
-    <t>123920</t>
-  </si>
-  <si>
-    <t>24619</t>
-  </si>
-  <si>
-    <t>(21,115)</t>
-  </si>
-  <si>
-    <t>(584)</t>
-  </si>
-  <si>
-    <t>115567</t>
-  </si>
-  <si>
-    <t>11273</t>
-  </si>
-  <si>
-    <t>Environmental</t>
-  </si>
-  <si>
-    <t>22335</t>
-  </si>
-  <si>
-    <t>2465</t>
-  </si>
-  <si>
-    <t>(1,968)</t>
-  </si>
-  <si>
-    <t>22832</t>
-  </si>
-  <si>
-    <t>4707</t>
-  </si>
-  <si>
-    <t>18125</t>
-  </si>
-  <si>
-    <t>17224</t>
-  </si>
-  <si>
-    <t>5871</t>
-  </si>
-  <si>
-    <t>(760)</t>
-  </si>
-  <si>
-    <t>3707</t>
-  </si>
-  <si>
-    <t>18628</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>20861</t>
-  </si>
-  <si>
-    <t>28739</t>
-  </si>
-  <si>
-    <t>(22,729)</t>
-  </si>
-  <si>
-    <t>(1,021)</t>
-  </si>
-  <si>
-    <t>25850</t>
-  </si>
-  <si>
-    <t>9115</t>
-  </si>
-  <si>
-    <t>16735</t>
-  </si>
-  <si>
-    <t>19791</t>
-  </si>
-  <si>
-    <t>4666</t>
-  </si>
-  <si>
-    <t>(2,526)</t>
-  </si>
-  <si>
-    <t>(1,070)</t>
-  </si>
-  <si>
-    <t>11502</t>
-  </si>
-  <si>
-    <t>9359</t>
-  </si>
-  <si>
-    <t>170036</t>
-  </si>
-  <si>
-    <t>36749</t>
-  </si>
-  <si>
-    <t>(29,702)</t>
-  </si>
-  <si>
-    <t>(3,578)</t>
-  </si>
-  <si>
-    <t>173505</t>
-  </si>
-  <si>
-    <t>132597</t>
-  </si>
-  <si>
-    <t>40908</t>
-  </si>
-  <si>
-    <t>160935</t>
-  </si>
-  <si>
-    <t>35156</t>
-  </si>
-  <si>
-    <t>(24,401)</t>
-  </si>
-  <si>
-    <t>(1,654)</t>
-  </si>
-  <si>
-    <t>130776</t>
-  </si>
-  <si>
-    <t>39260</t>
-  </si>
-  <si>
-    <t>Note 19. Other Creditors</t>
-  </si>
-  <si>
-    <t>Deferred Consideration on acquired property (Note 9)</t>
-  </si>
-  <si>
-    <t>Other amounts</t>
-  </si>
-  <si>
-    <t>17000</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>17298</t>
-  </si>
-  <si>
-    <t>32200</t>
-  </si>
-  <si>
-    <t>543</t>
-  </si>
-  <si>
-    <t>32743</t>
-  </si>
-  <si>
-    <t>Defined benefit obligation</t>
-  </si>
-  <si>
-    <t>Fair value of plan assets</t>
-  </si>
-  <si>
-    <t>Net defined benefit asset/(liability)</t>
-  </si>
-  <si>
-    <t>1January 2022</t>
-  </si>
-  <si>
-    <t>(26,729)</t>
-  </si>
-  <si>
-    <t>40398</t>
-  </si>
-  <si>
-    <t>13669</t>
-  </si>
-  <si>
-    <t>Other Changes</t>
-  </si>
-  <si>
-    <t>822</t>
-  </si>
-  <si>
-    <t>(1,188)</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>4579</t>
-  </si>
-  <si>
-    <t>(4,579)</t>
-  </si>
-  <si>
-    <t>31 December 2022</t>
-  </si>
-  <si>
-    <t>(21,328)</t>
-  </si>
-  <si>
-    <t>34631</t>
-  </si>
-  <si>
-    <t>13303</t>
-  </si>
-  <si>
-    <t>The fair values of each class of plan assets are as follows:</t>
-  </si>
-  <si>
-    <t>Equity Instruments</t>
-  </si>
-  <si>
-    <t>Debt Instruments</t>
-  </si>
-  <si>
-    <t>Property</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>Alternatives</t>
-  </si>
-  <si>
-    <t>Fair value of assets</t>
-  </si>
-  <si>
-    <t>Note 17. Trade and other payables</t>
-  </si>
-  <si>
-    <t>Trade payables</t>
-  </si>
-  <si>
-    <t>Payables to related parties (Note 23)</t>
-  </si>
-  <si>
-    <t>Other payables</t>
-  </si>
-  <si>
-    <t>12813</t>
-  </si>
-  <si>
-    <t>7619</t>
-  </si>
-  <si>
-    <t>2078</t>
-  </si>
-  <si>
-    <t>7965</t>
-  </si>
-  <si>
-    <t>218604</t>
-  </si>
-  <si>
-    <t>99331</t>
-  </si>
-  <si>
-    <t>319496</t>
-  </si>
-  <si>
-    <t>14947</t>
-  </si>
-  <si>
-    <t>8888</t>
-  </si>
-  <si>
-    <t>3232</t>
-  </si>
-  <si>
-    <t>8080</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>210738</t>
-  </si>
-  <si>
-    <t>106815</t>
-  </si>
-  <si>
-    <t>319346</t>
-  </si>
-  <si>
-    <t>Discount rate</t>
-  </si>
-  <si>
-    <t>Future salary increases</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>As at 1 January 2021</t>
-  </si>
-  <si>
-    <t>Additions</t>
-  </si>
-  <si>
-    <t>Depreciation Expense</t>
-  </si>
-  <si>
-    <t>FX Revaluation</t>
-  </si>
-  <si>
-    <t>As at 31 December 2021</t>
-  </si>
-  <si>
-    <t>Adjustments</t>
-  </si>
-  <si>
-    <t>As at 31 December 2022</t>
-  </si>
-  <si>
-    <t>Motor Vehicles</t>
-  </si>
-  <si>
-    <t>7300</t>
-  </si>
-  <si>
-    <t>1324</t>
-  </si>
-  <si>
-    <t>(3,439)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5191</t>
-  </si>
-  <si>
-    <t>2197</t>
-  </si>
-  <si>
-    <t>(1,405)</t>
-  </si>
-  <si>
-    <t>(2,220)</t>
-  </si>
-  <si>
-    <t>(6)</t>
-  </si>
-  <si>
-    <t>3757</t>
-  </si>
-  <si>
-    <t>Plant and machinery</t>
-  </si>
-  <si>
-    <t>786</t>
-  </si>
-  <si>
-    <t>(144)</t>
-  </si>
-  <si>
-    <t>642</t>
-  </si>
-  <si>
-    <t>448</t>
-  </si>
-  <si>
-    <t>(86)</t>
-  </si>
-  <si>
-    <t>(178)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>827</t>
-  </si>
-  <si>
-    <t>225470</t>
-  </si>
-  <si>
-    <t>13455</t>
-  </si>
-  <si>
-    <t>(40,808)</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>198266</t>
-  </si>
-  <si>
-    <t>31043</t>
-  </si>
-  <si>
-    <t>1491</t>
-  </si>
-  <si>
-    <t>(38,982)</t>
-  </si>
-  <si>
-    <t>(191)</t>
-  </si>
-  <si>
-    <t>191627</t>
-  </si>
-  <si>
-    <t>233556</t>
-  </si>
-  <si>
-    <t>14779</t>
-  </si>
-  <si>
-    <t>(44,391)</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>204099</t>
-  </si>
-  <si>
-    <t>33688</t>
-  </si>
-  <si>
-    <t>(41,380)</t>
-  </si>
-  <si>
-    <t>(196)</t>
-  </si>
-  <si>
-    <t>196211</t>
-  </si>
-  <si>
-    <t>Not later than 1 year</t>
-  </si>
-  <si>
-    <t>Later than 1 year and not later than 5 years</t>
-  </si>
-  <si>
-    <t>Later than 5 years</t>
-  </si>
-  <si>
-    <t>43983</t>
-  </si>
-  <si>
-    <t>119033</t>
-  </si>
-  <si>
-    <t>39078</t>
-  </si>
-  <si>
-    <t>202094</t>
-  </si>
-  <si>
-    <t>38349</t>
-  </si>
-  <si>
-    <t>115547</t>
-  </si>
-  <si>
-    <t>53718</t>
-  </si>
-  <si>
-    <t>207614</t>
-  </si>
-  <si>
-    <t>Benefits paid</t>
-  </si>
-  <si>
-    <t>(4,668)</t>
-  </si>
-  <si>
-    <t>Note 14. Intangible assets and Goodwill</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>At31 December 2021</t>
-  </si>
-  <si>
     <t>Amortisation</t>
   </si>
   <si>
     <t>Net book value</t>
   </si>
   <si>
-    <t>At 31 December 2022</t>
-  </si>
-  <si>
     <t>Computer Software</t>
   </si>
   <si>
@@ -1175,19 +1172,19 @@
     <t>Settlements from Auc</t>
   </si>
   <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Depreciation charge for the year</t>
+  </si>
+  <si>
+    <t>Impairment</t>
+  </si>
+  <si>
     <t>At 31 December 2021</t>
   </si>
   <si>
-    <t>Depreciation</t>
-  </si>
-  <si>
-    <t>Depreciation charge for the year</t>
-  </si>
-  <si>
-    <t>Impairment</t>
-  </si>
-  <si>
-    <t>Freehold Land &amp; Buildings</t>
+    <t>Freehold Land &amp;Buildings</t>
   </si>
   <si>
     <t>549576</t>
@@ -1538,7 +1535,7 @@
     <t>At the lower of cost and net realisable value:</t>
   </si>
   <si>
-    <t>Raw materials</t>
+    <t>Raw. materials</t>
   </si>
   <si>
     <t>Provision for impairment losses</t>
@@ -1700,7 +1697,7 @@
     <t>62521</t>
   </si>
   <si>
-    <t>Reconciliation of deferred tax assets, net</t>
+    <t>Reconcillation of deferred tax assets, net</t>
   </si>
   <si>
     <t>As of 1 January</t>
@@ -1709,10 +1706,10 @@
     <t>Acquisitions</t>
   </si>
   <si>
-    <t>Tax income/(expense) in other comprehensive income</t>
-  </si>
-  <si>
-    <t>Tax income/(expense) during the period recognised in profit or loss</t>
+    <t>Tax income/lexpense) in other comprehensive income</t>
+  </si>
+  <si>
+    <t>Tax income/lexpense) during the period recognised in profit or loss</t>
   </si>
   <si>
     <t>Movement to FCTR and other</t>
@@ -1808,10 +1805,10 @@
     <t>Actual gains on defined benefit plan</t>
   </si>
   <si>
-    <t>Deferred tax expense/(benefit)</t>
-  </si>
-  <si>
-    <t>Net deferred tax assets/(liabilities)</t>
+    <t>Deferred tax expense/lbenefit)</t>
+  </si>
+  <si>
+    <t>Net deferred tax assets/liabiities)</t>
   </si>
   <si>
     <t>Reflected in the statement of financial position as follows:</t>
@@ -2072,7 +2069,7 @@
     <t>80%</t>
   </si>
   <si>
-    <t>Note 6. Other income/expenses 6.1 Other income</t>
+    <t>Note 6. Other incomelexpenses 6.1 Other income</t>
   </si>
   <si>
     <t>Commission</t>
@@ -2213,7 +2210,7 @@
     <t>Income tax paid</t>
   </si>
   <si>
-    <t>Net cash flows from operating activities</t>
+    <t>Net cash fiows from operating activities</t>
   </si>
   <si>
     <t>Cash flows from investing activities</t>
@@ -2225,7 +2222,7 @@
     <t>Government grants received</t>
   </si>
   <si>
-    <t>Net cash flows used in investing activities</t>
+    <t>Net cash fiows used in investing activities</t>
   </si>
   <si>
     <t>Cash flows from financing activities</t>
@@ -2246,7 +2243,7 @@
     <t>Net cash flows from financing activities</t>
   </si>
   <si>
-    <t>Net (decreaseyincrease in cash and cash equivalents</t>
+    <t>Net (decrease)/lincrease in cash and cash equivalents</t>
   </si>
   <si>
     <t>Cash and cash equivalents at the beginning of the year</t>
@@ -2348,94 +2345,103 @@
     <t>At1 January 2022</t>
   </si>
   <si>
-    <t>Net profit/(loss) fort the year</t>
-  </si>
-  <si>
-    <t>Other comprehensive incomel(loss)</t>
-  </si>
-  <si>
-    <t>Total comprehensive incomel(loss) for the year</t>
+    <t>Net profit/(loss) for the year</t>
+  </si>
+  <si>
+    <t>Other comprehensive income/(loss)</t>
+  </si>
+  <si>
+    <t>Total comprehensive income/(loss) for the year</t>
   </si>
   <si>
     <t>with owners in their capacity as owners:</t>
   </si>
   <si>
-    <t>paid</t>
+    <t>Dividends paid</t>
   </si>
   <si>
     <t>Other adjustments</t>
   </si>
   <si>
-    <t>At1 January 2021</t>
-  </si>
-  <si>
-    <t>Net profit/(loss) for the year</t>
-  </si>
-  <si>
-    <t>Total comprehensive income/(loss) for the year</t>
-  </si>
-  <si>
-    <t>Transactions with owners in their capacity as owners:</t>
-  </si>
-  <si>
-    <t>Dividends paid</t>
-  </si>
-  <si>
-    <t>At: 31 2021</t>
+    <t>Net proft/loss) for the year</t>
+  </si>
+  <si>
+    <t>Transactions with int their capacity as</t>
+  </si>
+  <si>
+    <t>Issued</t>
   </si>
   <si>
     <t>capital</t>
   </si>
   <si>
-    <t>Issued</t>
+    <t>$'000.</t>
+  </si>
+  <si>
+    <t>Attributed to the equity holders oft the parent</t>
+  </si>
+  <si>
+    <t>gains/losses).</t>
+  </si>
+  <si>
+    <t>(439.468)</t>
+  </si>
+  <si>
+    <t>(309,427)</t>
+  </si>
+  <si>
+    <t>(748.293)</t>
+  </si>
+  <si>
+    <t>(748,385)</t>
   </si>
   <si>
     <t>Attributed to the equity holders of the parent</t>
   </si>
   <si>
-    <t>gains/(losses)</t>
+    <t>Accumulated</t>
+  </si>
+  <si>
+    <t>gains/losses)</t>
+  </si>
+  <si>
+    <t>$000</t>
+  </si>
+  <si>
+    <t>(376,856)</t>
+  </si>
+  <si>
+    <t>(65,386)</t>
+  </si>
+  <si>
+    <t>(439,421).</t>
   </si>
   <si>
     <t>(439,468)</t>
   </si>
   <si>
-    <t>(309,427)</t>
-  </si>
-  <si>
-    <t>(748.293)</t>
-  </si>
-  <si>
-    <t>(748,385)</t>
-  </si>
-  <si>
-    <t>to the equity of the parent</t>
-  </si>
-  <si>
-    <t>(376,856)</t>
-  </si>
-  <si>
-    <t>(65,386)</t>
-  </si>
-  <si>
-    <t>(439,421)</t>
+    <t>Cash Flow.</t>
+  </si>
+  <si>
+    <t>Hedge reserve</t>
+  </si>
+  <si>
+    <t>27.071</t>
+  </si>
+  <si>
+    <t>19:890:</t>
+  </si>
+  <si>
+    <t>46961</t>
   </si>
   <si>
     <t>Cash Flow</t>
   </si>
   <si>
-    <t>Hedge reserve</t>
-  </si>
-  <si>
-    <t>$000</t>
-  </si>
-  <si>
-    <t>27.071</t>
-  </si>
-  <si>
-    <t>46961</t>
-  </si>
-  <si>
-    <t>(8.414)</t>
+    <t>Hedge</t>
+  </si>
+  <si>
+    <t>(B.414)</t>
   </si>
   <si>
     <t>35485</t>
@@ -2447,30 +2453,33 @@
     <t>Foreign currency</t>
   </si>
   <si>
+    <t>transaction reserve</t>
+  </si>
+  <si>
     <t>2887</t>
   </si>
   <si>
     <t>(1.504)</t>
   </si>
   <si>
+    <t>1.383</t>
+  </si>
+  <si>
     <t>1383</t>
   </si>
   <si>
-    <t>transaction reserve</t>
-  </si>
-  <si>
     <t>(1.087)</t>
   </si>
   <si>
-    <t>3.974</t>
-  </si>
-  <si>
     <t>2052.770</t>
   </si>
   <si>
     <t>1762331</t>
   </si>
   <si>
+    <t>1.762,239</t>
+  </si>
+  <si>
     <t>2075923</t>
   </si>
   <si>
@@ -2498,9 +2507,6 @@
     <t>254</t>
   </si>
   <si>
-    <t>Interest</t>
-  </si>
-  <si>
     <t>201</t>
   </si>
   <si>
@@ -2519,337 +2525,346 @@
     <t>1762493</t>
   </si>
   <si>
+    <t>$'000:</t>
+  </si>
+  <si>
     <t>2076124</t>
   </si>
   <si>
     <t>(65,341)</t>
   </si>
   <si>
+    <t>42:297</t>
+  </si>
+  <si>
+    <t>2053080</t>
+  </si>
+  <si>
+    <t>Consolidated statement of financial position As at 31 December 2022</t>
+  </si>
+  <si>
+    <t>Other assets</t>
+  </si>
+  <si>
+    <t>Prepayments</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Derivatives</t>
+  </si>
+  <si>
+    <t>Total current assets</t>
+  </si>
+  <si>
+    <t>Non-current assets</t>
+  </si>
+  <si>
+    <t>Intangible assets and Goodwill</t>
+  </si>
+  <si>
+    <t>Right of use assets</t>
+  </si>
+  <si>
+    <t>Defined benefit plan</t>
+  </si>
+  <si>
+    <t>Total non-current assets</t>
+  </si>
+  <si>
+    <t>Trade and other payables</t>
+  </si>
+  <si>
+    <t>Loans and borrowings</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Other financial liabilities</t>
+  </si>
+  <si>
+    <t>Other creditors</t>
+  </si>
+  <si>
+    <t>Total current liabilities</t>
+  </si>
+  <si>
+    <t>Non-current liabilities</t>
+  </si>
+  <si>
+    <t>Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>Total non-current liabilities</t>
+  </si>
+  <si>
+    <t>Net assets</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Accumulated gains/losses)</t>
+  </si>
+  <si>
+    <t>Minority interest</t>
+  </si>
+  <si>
+    <t>Total equity</t>
+  </si>
+  <si>
+    <t>812.2</t>
+  </si>
+  <si>
+    <t>9, 12.2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12.2, 12.4</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>26935</t>
+  </si>
+  <si>
+    <t>892268</t>
+  </si>
+  <si>
+    <t>2010795</t>
+  </si>
+  <si>
+    <t>2903063</t>
+  </si>
+  <si>
+    <t>933753</t>
+  </si>
+  <si>
+    <t>158111</t>
+  </si>
+  <si>
+    <t>206817</t>
+  </si>
+  <si>
+    <t>1140570</t>
+  </si>
+  <si>
+    <t>48344</t>
+  </si>
+  <si>
+    <t>20093</t>
+  </si>
+  <si>
+    <t>876837</t>
+  </si>
+  <si>
+    <t>2261427</t>
+  </si>
+  <si>
+    <t>3138264</t>
+  </si>
+  <si>
+    <t>812431</t>
+  </si>
+  <si>
+    <t>169265</t>
+  </si>
+  <si>
+    <t>2232</t>
+  </si>
+  <si>
+    <t>272800</t>
+  </si>
+  <si>
+    <t>1085231</t>
+  </si>
+  <si>
+    <t>29958</t>
+  </si>
+  <si>
+    <t>(290,439)</t>
+  </si>
+  <si>
+    <t>(290,448)</t>
+  </si>
+  <si>
+    <t>(23,106)</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>(23,044)</t>
+  </si>
+  <si>
+    <t>Continuing operations</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Cost of sales</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Other income</t>
+  </si>
+  <si>
+    <t>Personnel costs non-manufacturing</t>
+  </si>
+  <si>
+    <t>Logistics and distribution</t>
+  </si>
+  <si>
+    <t>General and administration</t>
+  </si>
+  <si>
+    <t>Sales and marketing</t>
+  </si>
+  <si>
+    <t>Research and development</t>
+  </si>
+  <si>
+    <t>Once off costs</t>
+  </si>
+  <si>
+    <t>Operating Profit/(Loss)</t>
+  </si>
+  <si>
+    <t>Finance income</t>
+  </si>
+  <si>
+    <t>Finance expenses</t>
+  </si>
+  <si>
+    <t>Profit/(Loss) before tax from continued operations</t>
+  </si>
+  <si>
+    <t>Income tax (expense)benefit</t>
+  </si>
+  <si>
+    <t>Profit/(Loss) for the year</t>
+  </si>
+  <si>
+    <t>Other comprehensive Income/(loss)</t>
+  </si>
+  <si>
+    <t>Net foreign exchange differences on translation of overseas subsidiaries</t>
+  </si>
+  <si>
+    <t>Net gains/losses) on cash flow hedges net of tax</t>
+  </si>
+  <si>
+    <t>Actuarial gains/losses) on defined benefit plans net of tax</t>
+  </si>
+  <si>
+    <t>Other comprehensive income for the year net of tax</t>
+  </si>
+  <si>
+    <t>Total comprehensive Gain/(loss) for the year</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>(1,842,006)</t>
+  </si>
+  <si>
+    <t>269491</t>
+  </si>
+  <si>
+    <t>(122,639)</t>
+  </si>
+  <si>
+    <t>(188,212)</t>
+  </si>
+  <si>
+    <t>(28,809)</t>
+  </si>
+  <si>
+    <t>(269)</t>
+  </si>
+  <si>
+    <t>(301,201)</t>
+  </si>
+  <si>
+    <t>(318,935)</t>
+  </si>
+  <si>
+    <t>9499</t>
+  </si>
+  <si>
+    <t>(1,714,056)</t>
+  </si>
+  <si>
+    <t>253084</t>
+  </si>
+  <si>
+    <t>(127,371)</t>
+  </si>
+  <si>
+    <t>(122,054)</t>
+  </si>
+  <si>
+    <t>(32,539)</t>
+  </si>
+  <si>
+    <t>(355)</t>
+  </si>
+  <si>
+    <t>(51,808)</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>35502</t>
+  </si>
+  <si>
     <t>42297</t>
-  </si>
-  <si>
-    <t>Consolidated statement of financial position As at 31 December 2022</t>
-  </si>
-  <si>
-    <t>Other assets</t>
-  </si>
-  <si>
-    <t>Prepayments</t>
-  </si>
-  <si>
-    <t>Inventories</t>
-  </si>
-  <si>
-    <t>Derivatives</t>
-  </si>
-  <si>
-    <t>Total current assets</t>
-  </si>
-  <si>
-    <t>Non-current assets</t>
-  </si>
-  <si>
-    <t>Intangible assets and Goodwill</t>
-  </si>
-  <si>
-    <t>Right of use assets</t>
-  </si>
-  <si>
-    <t>Defined benefit plan</t>
-  </si>
-  <si>
-    <t>Total non-current assets</t>
-  </si>
-  <si>
-    <t>Trade and other payables</t>
-  </si>
-  <si>
-    <t>Loans and borrowings</t>
-  </si>
-  <si>
-    <t>Provisions</t>
-  </si>
-  <si>
-    <t>Other financial liabilities</t>
-  </si>
-  <si>
-    <t>Other creditors</t>
-  </si>
-  <si>
-    <t>Total current liabilities</t>
-  </si>
-  <si>
-    <t>Non-current liabilities</t>
-  </si>
-  <si>
-    <t>Deferred tax liabilities</t>
-  </si>
-  <si>
-    <t>Total non-current liabilities</t>
-  </si>
-  <si>
-    <t>Net assets</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Accumulated gains/(losses)</t>
-  </si>
-  <si>
-    <t>Minority interest</t>
-  </si>
-  <si>
-    <t>Total equity</t>
-  </si>
-  <si>
-    <t>812.2</t>
-  </si>
-  <si>
-    <t>912.2</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12.2, 12.4</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>26935</t>
-  </si>
-  <si>
-    <t>892268</t>
-  </si>
-  <si>
-    <t>2010795</t>
-  </si>
-  <si>
-    <t>2903063</t>
-  </si>
-  <si>
-    <t>933753</t>
-  </si>
-  <si>
-    <t>158111</t>
-  </si>
-  <si>
-    <t>206817</t>
-  </si>
-  <si>
-    <t>1140570</t>
-  </si>
-  <si>
-    <t>48344</t>
-  </si>
-  <si>
-    <t>20093</t>
-  </si>
-  <si>
-    <t>876837</t>
-  </si>
-  <si>
-    <t>2261427</t>
-  </si>
-  <si>
-    <t>3138264</t>
-  </si>
-  <si>
-    <t>812431</t>
-  </si>
-  <si>
-    <t>169265</t>
-  </si>
-  <si>
-    <t>2232</t>
-  </si>
-  <si>
-    <t>272800</t>
-  </si>
-  <si>
-    <t>1085231</t>
-  </si>
-  <si>
-    <t>29958</t>
-  </si>
-  <si>
-    <t>(290,439)</t>
-  </si>
-  <si>
-    <t>(290,448)</t>
-  </si>
-  <si>
-    <t>(23,106)</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>(23,044)</t>
-  </si>
-  <si>
-    <t>Continuing operations</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Cost of sales</t>
-  </si>
-  <si>
-    <t>Gross Profit</t>
-  </si>
-  <si>
-    <t>Other income</t>
-  </si>
-  <si>
-    <t>Personnel costs non-manufacturing</t>
-  </si>
-  <si>
-    <t>Logistics and distribution</t>
-  </si>
-  <si>
-    <t>General and administration</t>
-  </si>
-  <si>
-    <t>Sales and marketing</t>
-  </si>
-  <si>
-    <t>Research and development</t>
-  </si>
-  <si>
-    <t>Once off costs</t>
-  </si>
-  <si>
-    <t>Operating Profit/(Loss)</t>
-  </si>
-  <si>
-    <t>Finance income</t>
-  </si>
-  <si>
-    <t>Finance expenses</t>
-  </si>
-  <si>
-    <t>Profit/(Loss) before tax from continued operations</t>
-  </si>
-  <si>
-    <t>Income tax (expense)benefit</t>
-  </si>
-  <si>
-    <t>Profit/(Loss) for the year</t>
-  </si>
-  <si>
-    <t>Other comprehensive Incomel(loss)</t>
-  </si>
-  <si>
-    <t>Net foreign exchange differences on translation of overseas subsidiaries</t>
-  </si>
-  <si>
-    <t>Net gains/(losses) on cash flow hedges net of tax</t>
-  </si>
-  <si>
-    <t>Actuarial gains/(losses) on defined benefit plans net of tax</t>
-  </si>
-  <si>
-    <t>Other comprehensive income for the year net of tax</t>
-  </si>
-  <si>
-    <t>Total comprehensive Gain/(loss) for the year</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>(1,842,006)</t>
-  </si>
-  <si>
-    <t>269491</t>
-  </si>
-  <si>
-    <t>(122,639)</t>
-  </si>
-  <si>
-    <t>(188,212)</t>
-  </si>
-  <si>
-    <t>(28,809)</t>
-  </si>
-  <si>
-    <t>(269)</t>
-  </si>
-  <si>
-    <t>(301,201)</t>
-  </si>
-  <si>
-    <t>(318,935)</t>
-  </si>
-  <si>
-    <t>9499</t>
-  </si>
-  <si>
-    <t>(1,714,056)</t>
-  </si>
-  <si>
-    <t>253084</t>
-  </si>
-  <si>
-    <t>(127,371)</t>
-  </si>
-  <si>
-    <t>(122,054)</t>
-  </si>
-  <si>
-    <t>(32,539)</t>
-  </si>
-  <si>
-    <t>(355)</t>
-  </si>
-  <si>
-    <t>(51,808)</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>35502</t>
   </si>
 </sst>
 </file>
@@ -4434,7 +4449,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4451,63 +4466,63 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4551,13 +4566,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E3" t="s">
         <v>115</v>
@@ -4584,19 +4599,19 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4604,10 +4619,10 @@
         <v>254</v>
       </c>
       <c r="B7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4615,10 +4630,10 @@
         <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4626,33 +4641,33 @@
         <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4660,10 +4675,10 @@
         <v>254</v>
       </c>
       <c r="B11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4671,16 +4686,16 @@
         <v>256</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4688,16 +4703,16 @@
         <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4705,13 +4720,13 @@
         <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4719,13 +4734,13 @@
         <v>315</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4733,10 +4748,10 @@
         <v>258</v>
       </c>
       <c r="B16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4747,24 +4762,24 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4772,13 +4787,13 @@
         <v>315</v>
       </c>
       <c r="B19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4786,13 +4801,13 @@
         <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4800,13 +4815,13 @@
         <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4816,36 +4831,36 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>317</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>314</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -4883,16 +4898,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F2" t="s">
         <v>115</v>
@@ -4917,27 +4932,27 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F5" t="s">
         <v>431</v>
-      </c>
-      <c r="F5" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4945,38 +4960,38 @@
         <v>254</v>
       </c>
       <c r="D6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4984,36 +4999,36 @@
         <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5021,41 +5036,41 @@
         <v>254</v>
       </c>
       <c r="D11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5063,16 +5078,16 @@
         <v>256</v>
       </c>
       <c r="B14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5080,24 +5095,24 @@
         <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5105,41 +5120,41 @@
         <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5147,69 +5162,69 @@
         <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5217,13 +5232,13 @@
         <v>256</v>
       </c>
       <c r="B25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5231,16 +5246,16 @@
         <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F26" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5250,36 +5265,36 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>317</v>
+        <v>137</v>
       </c>
       <c r="B28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -5423,18 +5438,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5" t="s">
         <v>450</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>451</v>
-      </c>
-      <c r="C5" t="s">
-        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -5479,18 +5494,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C5" t="s">
         <v>454</v>
-      </c>
-      <c r="C5" t="s">
-        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -5527,7 +5542,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -5538,21 +5553,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5560,43 +5575,43 @@
         <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -5631,10 +5646,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -5645,7 +5660,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B3" t="s">
         <v>250</v>
@@ -5659,87 +5674,87 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="D8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="D11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -5768,7 +5783,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5781,7 +5796,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -5792,123 +5807,123 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -5937,7 +5952,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5958,24 +5973,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5983,18 +5998,18 @@
         <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6002,10 +6017,10 @@
         <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6013,15 +6028,15 @@
         <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6042,18 +6057,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
@@ -6061,13 +6076,13 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -6096,7 +6111,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6115,24 +6130,24 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -6180,10 +6195,10 @@
         <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -6212,7 +6227,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6231,26 +6246,26 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -6261,35 +6276,35 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B9" t="s">
+        <v>557</v>
+      </c>
+      <c r="C9" t="s">
         <v>554</v>
-      </c>
-      <c r="B9" t="s">
-        <v>558</v>
-      </c>
-      <c r="C9" t="s">
-        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -6318,7 +6333,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6337,81 +6352,81 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -6574,16 +6589,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6616,47 +6631,47 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6664,73 +6679,73 @@
         <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -6759,7 +6774,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6778,39 +6793,39 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -6829,29 +6844,29 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -6870,35 +6885,35 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C15" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B16" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -6927,7 +6942,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6946,58 +6961,58 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C5" t="s">
         <v>642</v>
-      </c>
-      <c r="C5" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -7016,7 +7031,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B12" t="s">
         <v>116</v>
@@ -7027,7 +7042,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B13" t="s">
         <v>116</v>
@@ -7065,21 +7080,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -7090,226 +7105,226 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B13" t="s">
+        <v>668</v>
+      </c>
+      <c r="C13" t="s">
         <v>669</v>
       </c>
-      <c r="C13" t="s">
-        <v>670</v>
-      </c>
       <c r="D13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B16" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B19" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -7338,7 +7353,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -7357,64 +7372,64 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7435,43 +7450,43 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -7508,7 +7523,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -7519,46 +7534,46 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -7590,15 +7605,15 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -7609,94 +7624,94 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C12" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D12" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C13" t="s">
         <v>88</v>
@@ -7707,109 +7722,109 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C16" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D16" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C17" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C18" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C20" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -7853,44 +7868,47 @@
     </row>
     <row r="2" spans="1:8">
       <c r="C2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>771</v>
+      </c>
       <c r="D3" t="s">
         <v>788</v>
       </c>
       <c r="E3" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F3" t="s">
         <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C4" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D4" t="s">
         <v>789</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>799</v>
       </c>
       <c r="G4" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="H4" t="s">
         <v>115</v>
@@ -7904,7 +7922,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>790</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -7913,7 +7931,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -7921,59 +7939,59 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E6" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F6" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="G6" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="H6" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C7" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F7" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="G7" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="H7" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C8" t="s">
         <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>791</v>
       </c>
       <c r="E8" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="F8" t="s">
         <v>117</v>
@@ -7984,52 +8002,52 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D9" t="s">
         <v>792</v>
       </c>
       <c r="E9" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="F9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G9" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="H9" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -8040,64 +8058,70 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D13" t="s">
         <v>792</v>
       </c>
       <c r="E13" t="s">
-        <v>799</v>
+        <v>803</v>
+      </c>
+      <c r="F13" t="s">
+        <v>807</v>
       </c>
       <c r="G13" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="H13" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D14" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E14" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
-        <v>777</v>
+        <v>771</v>
+      </c>
+      <c r="C15" t="s">
+        <v>781</v>
       </c>
       <c r="D15" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>798</v>
       </c>
       <c r="F15" t="s">
         <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C16" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="D16" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="E16" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G16" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H16" t="s">
         <v>115</v>
@@ -8105,161 +8129,167 @@
     </row>
     <row r="17" spans="1:8">
       <c r="B17" t="s">
-        <v>12</v>
+        <v>773</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>783</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>783</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>783</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>783</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>783</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>823</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>770</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D18" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E18" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="F18" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="G18" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="H18" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G19" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="H19" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C20" t="s">
         <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="E20" t="s">
-        <v>802</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>772</v>
+        <v>765</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D21" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E21" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F21" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G21" t="s">
-        <v>811</v>
+        <v>814</v>
+      </c>
+      <c r="H21" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C23" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F23" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H23" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>775</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="D25" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E25" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F25" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="G25" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="H25" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>
@@ -8291,18 +8321,18 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8318,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8326,132 +8356,132 @@
         <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="C6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B7" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C9" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="D9" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B10" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="B11" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C12" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="D12" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D14" t="s">
         <v>447</v>
-      </c>
-      <c r="D14" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="B15" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D15" t="s">
         <v>368</v>
-      </c>
-      <c r="D15" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="B16" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C16" t="s">
         <v>298</v>
@@ -8462,24 +8492,24 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B18" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="C18" t="s">
         <v>221</v>
@@ -8490,27 +8520,27 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B19" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C20" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="D20" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -8518,10 +8548,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="D21" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8531,7 +8561,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
@@ -8545,24 +8575,24 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="B24" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B25" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C25" t="s">
         <v>188</v>
@@ -8573,10 +8603,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B26" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C26" t="s">
         <v>302</v>
@@ -8587,10 +8617,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C27" t="s">
         <v>199</v>
@@ -8601,54 +8631,54 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="C28" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D28" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="B30" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B31" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C31" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="D31" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B32" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C32" t="s">
         <v>189</v>
@@ -8659,21 +8689,21 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="B33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D33" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C34" t="s">
         <v>200</v>
@@ -8684,13 +8714,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C35" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="D35" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8698,26 +8728,26 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="D36" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="C37" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D37" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -8725,7 +8755,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -8739,43 +8769,43 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="D40" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="C41" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D41" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="C42" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D42" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C43" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D43" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>
@@ -8801,26 +8831,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B3" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="B4" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
@@ -8935,15 +8965,15 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -8954,228 +8984,228 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B5" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="C5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="C6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C7" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="D7" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="C8" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="D8" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="B9" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="C10" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="D10" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C11" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="D11" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="B12" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="C12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C13" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="D13" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="B14" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C14" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="D14" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B15" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="C15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="C16" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="D16" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="B17" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D17" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B18" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="C18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="C19" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="D19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C20" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="D20" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C21" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D21" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="B23" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C23" t="s">
         <v>109</v>
@@ -9186,24 +9216,24 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B24" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C24" t="s">
         <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="B25" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C25" t="s">
         <v>114</v>
@@ -9214,24 +9244,24 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C26" t="s">
         <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>823</v>
+        <v>936</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="C27" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="D27" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
@@ -9257,26 +9287,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B3" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B4" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -9583,11 +9613,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-    </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>106</v>
